--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>username</t>
   </si>
@@ -84,23 +84,19 @@
     <t>salesmanager102</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>Roma</t>
   </si>
   <si>
     <t>Medhurst</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -430,13 +426,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -470,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -487,7 +483,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -504,7 +500,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -515,13 +511,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -538,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -555,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
